--- a/Data/Completing college/EducationReport(52).xlsx
+++ b/Data/Completing college/EducationReport(52).xlsx
@@ -323,1534 +323,821 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">16000</t>
+          <t xml:space="preserve">56000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Idaho</t>
+          <t xml:space="preserve">Wyoming</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.405329726330399</v>
+        <v>0.117808811891898</v>
       </c>
       <c s="7" r="E4">
-        <v>0.262811427682677</v>
+        <v>0.171535063825451</v>
       </c>
       <c s="7" r="F4">
-        <v>0.202542192478862</v>
+        <v>0.187907937890837</v>
       </c>
       <c s="7" r="G4">
-        <v>0.152838394676859</v>
+        <v>0.219100749850315</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.11392535987637</v>
+        <v>0.242608381658654</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0883254007561612</v>
+        <v>0.285222548582384</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">16001</t>
+          <t xml:space="preserve">56001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Ada, ID        </t>
+          <t xml:space="preserve">Albany, WY        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c s="7" r="D5">
-        <v>0.30455736163353</v>
+        <v>0.268247855767548</v>
       </c>
       <c s="7" r="E5">
-        <v>0.183256311818771</v>
+        <v>0.355301888147031</v>
       </c>
       <c s="7" r="F5">
-        <v>0.127762799009311</v>
+        <v>0.385285635393017</v>
       </c>
       <c s="7" r="G5">
-        <v>0.0921065185357942</v>
+        <v>0.440702867889046</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.0673091985713391</v>
+        <v>0.480839275637408</v>
       </c>
       <c s="7" r="J5">
-        <v>0.0497022342262778</v>
+        <v>0.562623320492342</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">16003</t>
+          <t xml:space="preserve">56003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Adams, ID        </t>
+          <t xml:space="preserve">Big Horn, WY        </t>
         </is>
       </c>
       <c s="8" r="C6">
         <v>9</v>
       </c>
       <c s="7" r="D6">
-        <v>0.499056010069226</v>
+        <v>0.0862997048098628</v>
       </c>
       <c s="7" r="E6">
-        <v>0.311009639776763</v>
+        <v>0.12303395560782</v>
       </c>
       <c s="7" r="F6">
-        <v>0.24731684554363</v>
+        <v>0.149992522805443</v>
       </c>
       <c s="7" r="G6">
-        <v>0.191653160453809</v>
+        <v>0.159335421489854</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.105174731182796</v>
+        <v>0.188149288187765</v>
       </c>
       <c s="7" r="J6">
-        <v>0.074992704989787</v>
+        <v>0.198254048582996</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">16005</t>
+          <t xml:space="preserve">56005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Bannock, ID        </t>
+          <t xml:space="preserve">Campbell, WY        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c s="7" r="D7">
-        <v>0.362948883856357</v>
+        <v>0.0631733594515181</v>
       </c>
       <c s="7" r="E7">
-        <v>0.208355618945742</v>
+        <v>0.135125906956893</v>
       </c>
       <c s="7" r="F7">
-        <v>0.171404883528122</v>
+        <v>0.157108721624851</v>
       </c>
       <c s="7" r="G7">
-        <v>0.124546609680028</v>
+        <v>0.156661859054061</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.0817634139952852</v>
+        <v>0.182247568399692</v>
       </c>
       <c s="7" r="J7">
-        <v>0.0671194566520176</v>
+        <v>0.205192657516124</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">16007</t>
+          <t xml:space="preserve">56007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Bear Lake, ID        </t>
+          <t xml:space="preserve">Carbon, WY        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D8">
-        <v>0.409262759924386</v>
+        <v>0.0794878634302481</v>
       </c>
       <c s="7" r="E8">
-        <v>0.260989770528062</v>
+        <v>0.138377174192443</v>
       </c>
       <c s="7" r="F8">
-        <v>0.201505500868558</v>
+        <v>0.141724763632891</v>
       </c>
       <c s="7" r="G8">
-        <v>0.145426114151681</v>
+        <v>0.171583555386372</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.0950329447541814</v>
+        <v>0.173360353721444</v>
       </c>
       <c s="7" r="J8">
-        <v>0.0689067445824203</v>
+        <v>0.201053992244208</v>
       </c>
     </row>
     <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">16009</t>
+          <t xml:space="preserve">56009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Benewah, ID        </t>
+          <t xml:space="preserve">Converse, WY        </t>
         </is>
       </c>
       <c s="8" r="C9">
         <v>6</v>
       </c>
       <c s="7" r="D9">
-        <v>0.535170829744473</v>
+        <v>0.0928170263080106</v>
       </c>
       <c s="7" r="E9">
-        <v>0.347149168945929</v>
+        <v>0.133634056949535</v>
       </c>
       <c s="7" r="F9">
-        <v>0.258329987956644</v>
+        <v>0.127482952860955</v>
       </c>
       <c s="7" r="G9">
-        <v>0.201619567013717</v>
+        <v>0.14735226400614</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.124121779859485</v>
+        <v>0.163735792408321</v>
       </c>
       <c s="7" r="J9">
-        <v>0.141903914590747</v>
+        <v>0.222080949353677</v>
       </c>
     </row>
     <row r="10" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">16011</t>
+          <t xml:space="preserve">56011</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B10">
         <is>
-          <t xml:space="preserve">Bingham, ID        </t>
+          <t xml:space="preserve">Crook, WY        </t>
         </is>
       </c>
       <c s="8" r="C10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c s="7" r="D10">
-        <v>0.413907284768212</v>
+        <v>0.0923777961888981</v>
       </c>
       <c s="7" r="E10">
-        <v>0.279752618676176</v>
+        <v>0.128484024473148</v>
       </c>
       <c s="7" r="F10">
-        <v>0.231844679379508</v>
+        <v>0.156165209526681</v>
       </c>
       <c s="7" r="G10">
-        <v>0.194256100194342</v>
+        <v>0.174639917695473</v>
       </c>
       <c s="3" t="str" r="H10"/>
       <c s="7" r="I10">
-        <v>0.151423949437568</v>
+        <v>0.207858306188925</v>
       </c>
       <c s="7" r="J10">
-        <v>0.106745092579702</v>
+        <v>0.242743538767396</v>
       </c>
     </row>
     <row r="11" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">16013</t>
+          <t xml:space="preserve">56013</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Blaine, ID        </t>
+          <t xml:space="preserve">Fremont, WY        </t>
         </is>
       </c>
       <c s="8" r="C11">
         <v>7</v>
       </c>
       <c s="7" r="D11">
-        <v>0.35933147632312</v>
+        <v>0.0944060870790475</v>
       </c>
       <c s="7" r="E11">
-        <v>0.11922627980657</v>
+        <v>0.162999615680246</v>
       </c>
       <c s="7" r="F11">
-        <v>0.0827940191921446</v>
+        <v>0.165270041172197</v>
       </c>
       <c s="7" r="G11">
-        <v>0.0978419476230704</v>
+        <v>0.196807356960049</v>
       </c>
       <c s="3" t="str" r="H11"/>
       <c s="7" r="I11">
-        <v>0.0945955018462571</v>
+        <v>0.219283372894767</v>
       </c>
       <c s="7" r="J11">
-        <v>0.0997525335847278</v>
+        <v>0.247188449848024</v>
       </c>
     </row>
     <row r="12" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">16015</t>
+          <t xml:space="preserve">56015</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B12">
         <is>
-          <t xml:space="preserve">Boise, ID        </t>
+          <t xml:space="preserve">Goshen, WY        </t>
         </is>
       </c>
       <c s="8" r="C12">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D12">
-        <v>0.445015416238438</v>
+        <v>0.0859816099370866</v>
       </c>
       <c s="7" r="E12">
-        <v>0.283276450511945</v>
+        <v>0.134526639630821</v>
       </c>
       <c s="7" r="F12">
-        <v>0.200435729847495</v>
+        <v>0.145212428662016</v>
       </c>
       <c s="7" r="G12">
-        <v>0.136573564987904</v>
+        <v>0.186295503211991</v>
       </c>
       <c s="3" t="str" r="H12"/>
       <c s="7" r="I12">
-        <v>0.124853915075964</v>
+        <v>0.18787287124417</v>
       </c>
       <c s="7" r="J12">
-        <v>0.0529303723493071</v>
+        <v>0.236125126135217</v>
       </c>
     </row>
     <row r="13" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">16017</t>
+          <t xml:space="preserve">56017</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B13">
         <is>
-          <t xml:space="preserve">Bonner, ID        </t>
+          <t xml:space="preserve">Hot Springs, WY        </t>
         </is>
       </c>
       <c s="8" r="C13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D13">
-        <v>0.498220640569395</v>
+        <v>0.0652392104382737</v>
       </c>
       <c s="7" r="E13">
-        <v>0.280027313076135</v>
+        <v>0.0854184641932701</v>
       </c>
       <c s="7" r="F13">
-        <v>0.218101645090169</v>
+        <v>0.142943670502726</v>
       </c>
       <c s="7" r="G13">
-        <v>0.144112127141317</v>
+        <v>0.17923186344239</v>
       </c>
       <c s="3" t="str" r="H13"/>
       <c s="7" r="I13">
-        <v>0.0947400487408611</v>
+        <v>0.197635135135135</v>
       </c>
       <c s="7" r="J13">
-        <v>0.0810141169691732</v>
+        <v>0.247391952309985</v>
       </c>
     </row>
     <row r="14" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">16019</t>
+          <t xml:space="preserve">56019</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B14">
         <is>
-          <t xml:space="preserve">Bonneville, ID        </t>
+          <t xml:space="preserve">Johnson, WY        </t>
         </is>
       </c>
       <c s="8" r="C14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D14">
-        <v>0.31014991398378</v>
+        <v>0.0920111905502021</v>
       </c>
       <c s="7" r="E14">
-        <v>0.194100998063459</v>
+        <v>0.148862512363996</v>
       </c>
       <c s="7" r="F14">
-        <v>0.159858387799564</v>
+        <v>0.179307002665374</v>
       </c>
       <c s="7" r="G14">
-        <v>0.12203620469259</v>
+        <v>0.222244529211002</v>
       </c>
       <c s="3" t="str" r="H14"/>
       <c s="7" r="I14">
-        <v>0.089531482280727</v>
+        <v>0.272315653298836</v>
       </c>
       <c s="7" r="J14">
-        <v>0.0749763673193788</v>
+        <v>0.360039728521768</v>
       </c>
     </row>
     <row r="15" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">16021</t>
+          <t xml:space="preserve">56021</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B15">
         <is>
-          <t xml:space="preserve">Boundary, ID        </t>
+          <t xml:space="preserve">Laramie, WY        </t>
         </is>
       </c>
       <c s="8" r="C15">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c s="7" r="D15">
-        <v>0.53473206691239</v>
+        <v>0.131092210071554</v>
       </c>
       <c s="7" r="E15">
-        <v>0.322627037392138</v>
+        <v>0.17725700314719</v>
       </c>
       <c s="7" r="F15">
-        <v>0.253910950661853</v>
+        <v>0.206910871180662</v>
       </c>
       <c s="7" r="G15">
-        <v>0.199873297434273</v>
+        <v>0.234497841292585</v>
       </c>
       <c s="3" t="str" r="H15"/>
       <c s="7" r="I15">
-        <v>0.162169382847983</v>
+        <v>0.241520506614502</v>
       </c>
       <c s="7" r="J15">
-        <v>0.117153284671533</v>
+        <v>0.301915448928735</v>
       </c>
     </row>
     <row r="16" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">16023</t>
+          <t xml:space="preserve">56023</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B16">
         <is>
-          <t xml:space="preserve">Butte, ID        </t>
+          <t xml:space="preserve">Lincoln, WY        </t>
         </is>
       </c>
       <c s="8" r="C16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D16">
-        <v>0.395144976399191</v>
+        <v>0.0883928571428571</v>
       </c>
       <c s="7" r="E16">
-        <v>0.290093048713738</v>
+        <v>0.125200900032144</v>
       </c>
       <c s="7" r="F16">
-        <v>0.196459166190748</v>
+        <v>0.152309436100878</v>
       </c>
       <c s="7" r="G16">
-        <v>0.174052322477309</v>
+        <v>0.171842192507459</v>
       </c>
       <c s="3" t="str" r="H16"/>
       <c s="7" r="I16">
-        <v>0.0850622406639004</v>
+        <v>0.232127623272479</v>
       </c>
       <c s="7" r="J16">
-        <v>0.107837980010521</v>
+        <v>0.229506927780788</v>
       </c>
     </row>
     <row r="17" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">16025</t>
+          <t xml:space="preserve">56025</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B17">
         <is>
-          <t xml:space="preserve">Camas, ID        </t>
+          <t xml:space="preserve">Natrona, WY        </t>
         </is>
       </c>
       <c s="8" r="C17">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c s="7" r="D17">
-        <v>0.254408060453401</v>
+        <v>0.132556996483799</v>
       </c>
       <c s="7" r="E17">
-        <v>0.162447257383966</v>
+        <v>0.196846812703707</v>
       </c>
       <c s="7" r="F17">
-        <v>0.181818181818182</v>
+        <v>0.20354903338277</v>
       </c>
       <c s="7" r="G17">
-        <v>0.115555555555556</v>
+        <v>0.200159414853713</v>
       </c>
       <c s="3" t="str" r="H17"/>
       <c s="7" r="I17">
-        <v>0.182983682983683</v>
+        <v>0.219942804941018</v>
       </c>
       <c s="7" r="J17">
-        <v>0.204735376044568</v>
+        <v>0.249334713187463</v>
       </c>
     </row>
     <row r="18" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">16027</t>
+          <t xml:space="preserve">56027</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B18">
         <is>
-          <t xml:space="preserve">Canyon, ID        </t>
+          <t xml:space="preserve">Niobrara, WY        </t>
         </is>
       </c>
       <c s="8" r="C18">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c s="7" r="D18">
-        <v>0.466402197131523</v>
+        <v>0.0480349344978166</v>
       </c>
       <c s="7" r="E18">
-        <v>0.347575882136599</v>
+        <v>0.115572436245252</v>
       </c>
       <c s="7" r="F18">
-        <v>0.29018158625347</v>
+        <v>0.130113636363636</v>
       </c>
       <c s="7" r="G18">
-        <v>0.239770814027852</v>
+        <v>0.153090699017909</v>
       </c>
       <c s="3" t="str" r="H18"/>
       <c s="7" r="I18">
-        <v>0.174869530309113</v>
+        <v>0.165081141578064</v>
       </c>
       <c s="7" r="J18">
-        <v>0.13475456926413</v>
+        <v>0.2099533437014</v>
       </c>
     </row>
     <row r="19" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">16029</t>
+          <t xml:space="preserve">56029</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B19">
         <is>
-          <t xml:space="preserve">Caribou, ID        </t>
+          <t xml:space="preserve">Park, WY        </t>
         </is>
       </c>
       <c s="8" r="C19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D19">
-        <v>0.333749220212102</v>
+        <v>0.126520681265207</v>
       </c>
       <c s="7" r="E19">
-        <v>0.238173302107728</v>
+        <v>0.163697912468768</v>
       </c>
       <c s="7" r="F19">
-        <v>0.156982670744139</v>
+        <v>0.187895273716423</v>
       </c>
       <c s="7" r="G19">
-        <v>0.134138009565019</v>
+        <v>0.236628754738991</v>
       </c>
       <c s="3" t="str" r="H19"/>
       <c s="7" r="I19">
-        <v>0.0975447909754479</v>
+        <v>0.284567620778434</v>
       </c>
       <c s="7" r="J19">
-        <v>0.103092783505155</v>
+        <v>0.330137050376538</v>
       </c>
     </row>
     <row r="20" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">16031</t>
+          <t xml:space="preserve">56031</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B20">
         <is>
-          <t xml:space="preserve">Cassia, ID        </t>
+          <t xml:space="preserve">Platte, WY        </t>
         </is>
       </c>
       <c s="8" r="C20">
         <v>7</v>
       </c>
       <c s="7" r="D20">
-        <v>0.444575890216491</v>
+        <v>0.0679284417941405</v>
       </c>
       <c s="7" r="E20">
-        <v>0.294888730820039</v>
+        <v>0.11710010169984</v>
       </c>
       <c s="7" r="F20">
-        <v>0.273385973060845</v>
+        <v>0.113512497650818</v>
       </c>
       <c s="7" r="G20">
-        <v>0.230542356218253</v>
+        <v>0.15213788531654</v>
       </c>
       <c s="3" t="str" r="H20"/>
       <c s="7" r="I20">
-        <v>0.222122167191956</v>
+        <v>0.191368719483383</v>
       </c>
       <c s="7" r="J20">
-        <v>0.156888369213839</v>
+        <v>0.22360248447205</v>
       </c>
     </row>
     <row r="21" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">16033</t>
+          <t xml:space="preserve">56033</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B21">
         <is>
-          <t xml:space="preserve">Clark, ID        </t>
+          <t xml:space="preserve">Sheridan, WY        </t>
         </is>
       </c>
       <c s="8" r="C21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c s="7" r="D21">
-        <v>0.486567164179104</v>
+        <v>0.111776079550686</v>
       </c>
       <c s="7" r="E21">
-        <v>0.244292237442922</v>
+        <v>0.170113096433112</v>
       </c>
       <c s="7" r="F21">
-        <v>0.252631578947368</v>
+        <v>0.176391554702495</v>
       </c>
       <c s="7" r="G21">
-        <v>0.360344827586207</v>
+        <v>0.223915461624027</v>
       </c>
       <c s="3" t="str" r="H21"/>
       <c s="7" r="I21">
-        <v>0.339393939393939</v>
+        <v>0.253070649503783</v>
       </c>
       <c s="7" r="J21">
-        <v>0.346153846153846</v>
+        <v>0.312407817109145</v>
       </c>
     </row>
     <row r="22" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">16035</t>
+          <t xml:space="preserve">56035</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B22">
         <is>
-          <t xml:space="preserve">Clearwater, ID        </t>
+          <t xml:space="preserve">Sublette, WY        </t>
         </is>
       </c>
       <c s="8" r="C22">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c s="7" r="D22">
-        <v>0.521138765768837</v>
+        <v>0.128463476070529</v>
       </c>
       <c s="7" r="E22">
-        <v>0.318402952524744</v>
+        <v>0.183185499421519</v>
       </c>
       <c s="7" r="F22">
-        <v>0.266210436270316</v>
+        <v>0.213680577345466</v>
       </c>
       <c s="7" r="G22">
-        <v>0.19867758186398</v>
+        <v>0.215628090999011</v>
       </c>
       <c s="3" t="str" r="H22"/>
       <c s="7" r="I22">
-        <v>0.138132295719844</v>
+        <v>0.28540680154972</v>
       </c>
       <c s="7" r="J22">
-        <v>0.0757024312126947</v>
+        <v>0.266021963612523</v>
       </c>
     </row>
     <row r="23" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">16037</t>
+          <t xml:space="preserve">56037</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B23">
         <is>
-          <t xml:space="preserve">Custer, ID        </t>
+          <t xml:space="preserve">Sweetwater, WY        </t>
         </is>
       </c>
       <c s="8" r="C23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c s="7" r="D23">
-        <v>0.473745624270712</v>
+        <v>0.0953326713008937</v>
       </c>
       <c s="7" r="E23">
-        <v>0.246721709567751</v>
+        <v>0.139579800263803</v>
       </c>
       <c s="7" r="F23">
-        <v>0.182880844645551</v>
+        <v>0.133404340300892</v>
       </c>
       <c s="7" r="G23">
-        <v>0.155378486055777</v>
+        <v>0.170389970936538</v>
       </c>
       <c s="3" t="str" r="H23"/>
       <c s="7" r="I23">
-        <v>0.107924761023743</v>
+        <v>0.170062354988399</v>
       </c>
       <c s="7" r="J23">
-        <v>0.129914004914005</v>
+        <v>0.193917169974116</v>
       </c>
     </row>
     <row r="24" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">16039</t>
+          <t xml:space="preserve">56039</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B24">
         <is>
-          <t xml:space="preserve">Elmore, ID        </t>
+          <t xml:space="preserve">Teton, WY        </t>
         </is>
       </c>
       <c s="8" r="C24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D24">
-        <v>0.321418973394249</v>
+        <v>0.175337186897881</v>
       </c>
       <c s="7" r="E24">
-        <v>0.237752587481518</v>
+        <v>0.331460674157303</v>
       </c>
       <c s="7" r="F24">
-        <v>0.16935551283123</v>
+        <v>0.299986905853084</v>
       </c>
       <c s="7" r="G24">
-        <v>0.128155453798286</v>
+        <v>0.457859479669731</v>
       </c>
       <c s="3" t="str" r="H24"/>
       <c s="7" r="I24">
-        <v>0.15008239320573</v>
+        <v>0.489943991853361</v>
       </c>
       <c s="7" r="J24">
-        <v>0.107466189784285</v>
+        <v>0.578685089755932</v>
       </c>
     </row>
     <row r="25" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">16041</t>
+          <t xml:space="preserve">56041</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B25">
         <is>
-          <t xml:space="preserve">Franklin, ID        </t>
+          <t xml:space="preserve">Uinta, WY        </t>
         </is>
       </c>
       <c s="8" r="C25">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c s="7" r="D25">
-        <v>0.388171487603306</v>
+        <v>0.0906515580736544</v>
       </c>
       <c s="7" r="E25">
-        <v>0.226461955294649</v>
+        <v>0.117974918718068</v>
       </c>
       <c s="7" r="F25">
-        <v>0.178315228530437</v>
+        <v>0.143490081562783</v>
       </c>
       <c s="7" r="G25">
-        <v>0.117647058823529</v>
+        <v>0.149611115966093</v>
       </c>
       <c s="3" t="str" r="H25"/>
       <c s="7" r="I25">
-        <v>0.0824303936359896</v>
+        <v>0.182729847661334</v>
       </c>
       <c s="7" r="J25">
-        <v>0.0725363874970174</v>
+        <v>0.179551122194514</v>
       </c>
     </row>
     <row r="26" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">16043</t>
+          <t xml:space="preserve">56043</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B26">
         <is>
-          <t xml:space="preserve">Fremont, ID        </t>
+          <t xml:space="preserve">Washakie, WY        </t>
         </is>
       </c>
       <c s="8" r="C26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c s="7" r="D26">
-        <v>0.413013059701493</v>
+        <v>0.107169436864302</v>
       </c>
       <c s="7" r="E26">
-        <v>0.284948224852071</v>
+        <v>0.125783773513205</v>
       </c>
       <c s="7" r="F26">
-        <v>0.243778567800914</v>
+        <v>0.184094256259205</v>
       </c>
       <c s="7" r="G26">
-        <v>0.196023564064801</v>
+        <v>0.187179487179487</v>
       </c>
       <c s="3" t="str" r="H26"/>
       <c s="7" r="I26">
-        <v>0.130482996550025</v>
+        <v>0.233398264565256</v>
       </c>
       <c s="7" r="J26">
-        <v>0.114635251472587</v>
-      </c>
-    </row>
-    <row r="27" ht="20.65" customHeight="0">
+        <v>0.261663286004057</v>
+      </c>
+    </row>
+    <row r="27" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">16045</t>
+          <t xml:space="preserve">56045</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B27">
         <is>
-          <t xml:space="preserve">Gem, ID        </t>
+          <t xml:space="preserve">Weston, WY        </t>
         </is>
       </c>
       <c s="8" r="C27">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c s="7" r="D27">
-        <v>0.535755478662053</v>
+        <v>0.0743975903614458</v>
       </c>
       <c s="7" r="E27">
-        <v>0.369281045751634</v>
+        <v>0.120689655172414</v>
       </c>
       <c s="7" r="F27">
-        <v>0.298778903611328</v>
+        <v>0.1273076000959</v>
       </c>
       <c s="7" r="G27">
-        <v>0.206250646797061</v>
+        <v>0.144927536231884</v>
       </c>
       <c s="3" t="str" r="H27"/>
       <c s="7" r="I27">
-        <v>0.155931317005143</v>
+        <v>0.174929463925836</v>
       </c>
       <c s="7" r="J27">
-        <v>0.122031059683313</v>
-      </c>
-    </row>
-    <row r="28" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A28">
-        <is>
-          <t xml:space="preserve">16047</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B28">
-        <is>
-          <t xml:space="preserve">Gooding, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C28">
-        <v>7</v>
-      </c>
-      <c s="7" r="D28">
-        <v>0.465130260521042</v>
-      </c>
-      <c s="7" r="E28">
-        <v>0.340334941810957</v>
-      </c>
-      <c s="7" r="F28">
-        <v>0.274983050847458</v>
-      </c>
-      <c s="7" r="G28">
-        <v>0.274169615340715</v>
-      </c>
-      <c s="3" t="str" r="H28"/>
-      <c s="7" r="I28">
-        <v>0.237497362312724</v>
-      </c>
-      <c s="7" r="J28">
-        <v>0.228314652125618</v>
-      </c>
-    </row>
-    <row r="29" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A29">
-        <is>
-          <t xml:space="preserve">16049</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B29">
-        <is>
-          <t xml:space="preserve">Idaho, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C29">
-        <v>6</v>
-      </c>
-      <c s="7" r="D29">
-        <v>0.464768269649862</v>
-      </c>
-      <c s="7" r="E29">
-        <v>0.314265863825845</v>
-      </c>
-      <c s="7" r="F29">
-        <v>0.249398381098228</v>
-      </c>
-      <c s="7" r="G29">
-        <v>0.170990787742057</v>
-      </c>
-      <c s="3" t="str" r="H29"/>
-      <c s="7" r="I29">
-        <v>0.121732509939937</v>
-      </c>
-      <c s="7" r="J29">
-        <v>0.0784667048898354</v>
-      </c>
-    </row>
-    <row r="30" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A30">
-        <is>
-          <t xml:space="preserve">16051</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B30">
-        <is>
-          <t xml:space="preserve">Jefferson, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C30">
-        <v>3</v>
-      </c>
-      <c s="7" r="D30">
-        <v>0.458637253157801</v>
-      </c>
-      <c s="7" r="E30">
-        <v>0.293990546927752</v>
-      </c>
-      <c s="7" r="F30">
-        <v>0.223946784922395</v>
-      </c>
-      <c s="7" r="G30">
-        <v>0.156168359941945</v>
-      </c>
-      <c s="3" t="str" r="H30"/>
-      <c s="7" r="I30">
-        <v>0.114425162689805</v>
-      </c>
-      <c s="7" r="J30">
-        <v>0.0820673900628212</v>
-      </c>
-    </row>
-    <row r="31" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A31">
-        <is>
-          <t xml:space="preserve">16053</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B31">
-        <is>
-          <t xml:space="preserve">Jerome, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C31">
-        <v>7</v>
-      </c>
-      <c s="7" r="D31">
-        <v>0.504225352112676</v>
-      </c>
-      <c s="7" r="E31">
-        <v>0.339645545035203</v>
-      </c>
-      <c s="7" r="F31">
-        <v>0.276307224994576</v>
-      </c>
-      <c s="7" r="G31">
-        <v>0.249314818198429</v>
-      </c>
-      <c s="3" t="str" r="H31"/>
-      <c s="7" r="I31">
-        <v>0.291055551333688</v>
-      </c>
-      <c s="7" r="J31">
-        <v>0.236942070275404</v>
-      </c>
-    </row>
-    <row r="32" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A32">
-        <is>
-          <t xml:space="preserve">16055</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B32">
-        <is>
-          <t xml:space="preserve">Kootenai, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C32">
-        <v>3</v>
-      </c>
-      <c s="7" r="D32">
-        <v>0.43355684242609</v>
-      </c>
-      <c s="7" r="E32">
-        <v>0.244088416723783</v>
-      </c>
-      <c s="7" r="F32">
-        <v>0.189206574540292</v>
-      </c>
-      <c s="7" r="G32">
-        <v>0.127046599496222</v>
-      </c>
-      <c s="3" t="str" r="H32"/>
-      <c s="7" r="I32">
-        <v>0.0782861449025729</v>
-      </c>
-      <c s="7" r="J32">
-        <v>0.0646293866003102</v>
-      </c>
-    </row>
-    <row r="33" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A33">
-        <is>
-          <t xml:space="preserve">16057</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B33">
-        <is>
-          <t xml:space="preserve">Latah, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C33">
-        <v>4</v>
-      </c>
-      <c s="7" r="D33">
-        <v>0.330624016780283</v>
-      </c>
-      <c s="7" r="E33">
-        <v>0.185481117257393</v>
-      </c>
-      <c s="7" r="F33">
-        <v>0.133606162734714</v>
-      </c>
-      <c s="7" r="G33">
-        <v>0.0901862206946083</v>
-      </c>
-      <c s="3" t="str" r="H33"/>
-      <c s="7" r="I33">
-        <v>0.0541142303969022</v>
-      </c>
-      <c s="7" r="J33">
-        <v>0.0348403332176328</v>
-      </c>
-    </row>
-    <row r="34" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A34">
-        <is>
-          <t xml:space="preserve">16059</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B34">
-        <is>
-          <t xml:space="preserve">Lemhi, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C34">
-        <v>7</v>
-      </c>
-      <c s="7" r="D34">
-        <v>0.458528951486698</v>
-      </c>
-      <c s="7" r="E34">
-        <v>0.296656122910077</v>
-      </c>
-      <c s="7" r="F34">
-        <v>0.260784738781704</v>
-      </c>
-      <c s="7" r="G34">
-        <v>0.174576586636888</v>
-      </c>
-      <c s="3" t="str" r="H34"/>
-      <c s="7" r="I34">
-        <v>0.0968875502008032</v>
-      </c>
-      <c s="7" r="J34">
-        <v>0.100363756613757</v>
-      </c>
-    </row>
-    <row r="35" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A35">
-        <is>
-          <t xml:space="preserve">16061</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B35">
-        <is>
-          <t xml:space="preserve">Lewis, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C35">
-        <v>8</v>
-      </c>
-      <c s="7" r="D35">
-        <v>0.436781609195402</v>
-      </c>
-      <c s="7" r="E35">
-        <v>0.328321820398212</v>
-      </c>
-      <c s="7" r="F35">
-        <v>0.212043010752688</v>
-      </c>
-      <c s="7" r="G35">
-        <v>0.157935285053929</v>
-      </c>
-      <c s="3" t="str" r="H35"/>
-      <c s="7" r="I35">
-        <v>0.115862573099415</v>
-      </c>
-      <c s="7" r="J35">
-        <v>0.100309837335399</v>
-      </c>
-    </row>
-    <row r="36" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A36">
-        <is>
-          <t xml:space="preserve">16063</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B36">
-        <is>
-          <t xml:space="preserve">Lincoln, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C36">
-        <v>9</v>
-      </c>
-      <c s="7" r="D36">
-        <v>0.491764705882353</v>
-      </c>
-      <c s="7" r="E36">
-        <v>0.277777777777778</v>
-      </c>
-      <c s="7" r="F36">
-        <v>0.202450980392157</v>
-      </c>
-      <c s="7" r="G36">
-        <v>0.22620016273393</v>
-      </c>
-      <c s="3" t="str" r="H36"/>
-      <c s="7" r="I36">
-        <v>0.260767946577629</v>
-      </c>
-      <c s="7" r="J36">
-        <v>0.186638705811863</v>
-      </c>
-    </row>
-    <row r="37" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A37">
-        <is>
-          <t xml:space="preserve">16065</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B37">
-        <is>
-          <t xml:space="preserve">Madison, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C37">
-        <v>4</v>
-      </c>
-      <c s="7" r="D37">
-        <v>0.320244880726198</v>
-      </c>
-      <c s="7" r="E37">
-        <v>0.186736744473644</v>
-      </c>
-      <c s="7" r="F37">
-        <v>0.124117943548387</v>
-      </c>
-      <c s="7" r="G37">
-        <v>0.115343347639485</v>
-      </c>
-      <c s="3" t="str" r="H37"/>
-      <c s="7" r="I37">
-        <v>0.0506700167504188</v>
-      </c>
-      <c s="7" r="J37">
-        <v>0.0438624605100499</v>
-      </c>
-    </row>
-    <row r="38" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A38">
-        <is>
-          <t xml:space="preserve">16067</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B38">
-        <is>
-          <t xml:space="preserve">Minidoka, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C38">
-        <v>7</v>
-      </c>
-      <c s="7" r="D38">
-        <v>0.445503736150477</v>
-      </c>
-      <c s="7" r="E38">
-        <v>0.357999213836478</v>
-      </c>
-      <c s="7" r="F38">
-        <v>0.314751747625022</v>
-      </c>
-      <c s="7" r="G38">
-        <v>0.263232830820771</v>
-      </c>
-      <c s="3" t="str" r="H38"/>
-      <c s="7" r="I38">
-        <v>0.251427652215877</v>
-      </c>
-      <c s="7" r="J38">
-        <v>0.208847427023774</v>
-      </c>
-    </row>
-    <row r="39" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A39">
-        <is>
-          <t xml:space="preserve">16069</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B39">
-        <is>
-          <t xml:space="preserve">Nez Perce, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C39">
-        <v>3</v>
-      </c>
-      <c s="7" r="D39">
-        <v>0.39068603515625</v>
-      </c>
-      <c s="7" r="E39">
-        <v>0.276698784240529</v>
-      </c>
-      <c s="7" r="F39">
-        <v>0.200746671464556</v>
-      </c>
-      <c s="7" r="G39">
-        <v>0.145320893412496</v>
-      </c>
-      <c s="3" t="str" r="H39"/>
-      <c s="7" r="I39">
-        <v>0.104550359043048</v>
-      </c>
-      <c s="7" r="J39">
-        <v>0.0683828066086241</v>
-      </c>
-    </row>
-    <row r="40" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A40">
-        <is>
-          <t xml:space="preserve">16071</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B40">
-        <is>
-          <t xml:space="preserve">Oneida, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C40">
-        <v>8</v>
-      </c>
-      <c s="7" r="D40">
-        <v>0.375444839857651</v>
-      </c>
-      <c s="7" r="E40">
-        <v>0.282079047103411</v>
-      </c>
-      <c s="7" r="F40">
-        <v>0.212543554006969</v>
-      </c>
-      <c s="7" r="G40">
-        <v>0.135579622944244</v>
-      </c>
-      <c s="3" t="str" r="H40"/>
-      <c s="7" r="I40">
-        <v>0.0826386371873867</v>
-      </c>
-      <c s="7" r="J40">
-        <v>0.0991144414168937</v>
-      </c>
-    </row>
-    <row r="41" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A41">
-        <is>
-          <t xml:space="preserve">16073</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B41">
-        <is>
-          <t xml:space="preserve">Owyhee, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C41">
-        <v>2</v>
-      </c>
-      <c s="7" r="D41">
-        <v>0.533918837068443</v>
-      </c>
-      <c s="7" r="E41">
-        <v>0.468813789975051</v>
-      </c>
-      <c s="7" r="F41">
-        <v>0.380197612186085</v>
-      </c>
-      <c s="7" r="G41">
-        <v>0.324231010671689</v>
-      </c>
-      <c s="3" t="str" r="H41"/>
-      <c s="7" r="I41">
-        <v>0.251117942984908</v>
-      </c>
-      <c s="7" r="J41">
-        <v>0.251407369498465</v>
-      </c>
-    </row>
-    <row r="42" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A42">
-        <is>
-          <t xml:space="preserve">16075</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B42">
-        <is>
-          <t xml:space="preserve">Payette, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C42">
-        <v>6</v>
-      </c>
-      <c s="7" r="D42">
-        <v>0.479018541753799</v>
-      </c>
-      <c s="7" r="E42">
-        <v>0.389015521545642</v>
-      </c>
-      <c s="7" r="F42">
-        <v>0.325954946131244</v>
-      </c>
-      <c s="7" r="G42">
-        <v>0.255152417522138</v>
-      </c>
-      <c s="3" t="str" r="H42"/>
-      <c s="7" r="I42">
-        <v>0.168343112601285</v>
-      </c>
-      <c s="7" r="J42">
-        <v>0.138554948391014</v>
-      </c>
-    </row>
-    <row r="43" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A43">
-        <is>
-          <t xml:space="preserve">16077</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B43">
-        <is>
-          <t xml:space="preserve">Power, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C43">
-        <v>6</v>
-      </c>
-      <c s="7" r="D43">
-        <v>0.421716144774298</v>
-      </c>
-      <c s="7" r="E43">
-        <v>0.294742576954508</v>
-      </c>
-      <c s="7" r="F43">
-        <v>0.279382470119522</v>
-      </c>
-      <c s="7" r="G43">
-        <v>0.252532228360958</v>
-      </c>
-      <c s="3" t="str" r="H43"/>
-      <c s="7" r="I43">
-        <v>0.177570093457944</v>
-      </c>
-      <c s="7" r="J43">
-        <v>0.20547385620915</v>
-      </c>
-    </row>
-    <row r="44" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A44">
-        <is>
-          <t xml:space="preserve">16079</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B44">
-        <is>
-          <t xml:space="preserve">Shoshone, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C44">
-        <v>6</v>
-      </c>
-      <c s="7" r="D44">
-        <v>0.500670241286863</v>
-      </c>
-      <c s="7" r="E44">
-        <v>0.361463504320647</v>
-      </c>
-      <c s="7" r="F44">
-        <v>0.298936969827123</v>
-      </c>
-      <c s="7" r="G44">
-        <v>0.221199586349535</v>
-      </c>
-      <c s="3" t="str" r="H44"/>
-      <c s="7" r="I44">
-        <v>0.151174010935992</v>
-      </c>
-      <c s="7" r="J44">
-        <v>0.115964802011314</v>
-      </c>
-    </row>
-    <row r="45" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A45">
-        <is>
-          <t xml:space="preserve">16081</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B45">
-        <is>
-          <t xml:space="preserve">Teton, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C45">
-        <v>9</v>
-      </c>
-      <c s="7" r="D45">
-        <v>0.393939393939394</v>
-      </c>
-      <c s="7" r="E45">
-        <v>0.215081967213115</v>
-      </c>
-      <c s="7" r="F45">
-        <v>0.197879858657244</v>
-      </c>
-      <c s="7" r="G45">
-        <v>0.127282789153293</v>
-      </c>
-      <c s="3" t="str" r="H45"/>
-      <c s="7" r="I45">
-        <v>0.11866235167206</v>
-      </c>
-      <c s="7" r="J45">
-        <v>0.0760705289672544</v>
-      </c>
-    </row>
-    <row r="46" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A46">
-        <is>
-          <t xml:space="preserve">16083</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B46">
-        <is>
-          <t xml:space="preserve">Twin Falls, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C46">
-        <v>5</v>
-      </c>
-      <c s="7" r="D46">
-        <v>0.435817049602749</v>
-      </c>
-      <c s="7" r="E46">
-        <v>0.317938090068752</v>
-      </c>
-      <c s="7" r="F46">
-        <v>0.246017378711079</v>
-      </c>
-      <c s="7" r="G46">
-        <v>0.187209184705644</v>
-      </c>
-      <c s="3" t="str" r="H46"/>
-      <c s="7" r="I46">
-        <v>0.163756537495367</v>
-      </c>
-      <c s="7" r="J46">
-        <v>0.12969786293294</v>
-      </c>
-    </row>
-    <row r="47" ht="20.65" customHeight="0">
-      <c s="5" t="inlineStr" r="A47">
-        <is>
-          <t xml:space="preserve">16085</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B47">
-        <is>
-          <t xml:space="preserve">Valley, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C47">
-        <v>8</v>
-      </c>
-      <c s="7" r="D47">
-        <v>0.426686217008798</v>
-      </c>
-      <c s="7" r="E47">
-        <v>0.197253068381064</v>
-      </c>
-      <c s="7" r="F47">
-        <v>0.161925601750547</v>
-      </c>
-      <c s="7" r="G47">
-        <v>0.110950226244344</v>
-      </c>
-      <c s="3" t="str" r="H47"/>
-      <c s="7" r="I47">
-        <v>0.0809805811871643</v>
-      </c>
-      <c s="7" r="J47">
-        <v>0.0945074494107183</v>
-      </c>
-    </row>
-    <row r="48" ht="20.6" customHeight="0">
-      <c s="5" t="inlineStr" r="A48">
-        <is>
-          <t xml:space="preserve">16087</t>
-        </is>
-      </c>
-      <c s="5" t="inlineStr" r="B48">
-        <is>
-          <t xml:space="preserve">Washington, ID        </t>
-        </is>
-      </c>
-      <c s="8" r="C48">
-        <v>6</v>
-      </c>
-      <c s="7" r="D48">
-        <v>0.535070140280561</v>
-      </c>
-      <c s="7" r="E48">
-        <v>0.392120075046904</v>
-      </c>
-      <c s="7" r="F48">
-        <v>0.272547964855657</v>
-      </c>
-      <c s="7" r="G48">
-        <v>0.233873433200856</v>
-      </c>
-      <c s="3" t="str" r="H48"/>
-      <c s="7" r="I48">
-        <v>0.198105321816662</v>
-      </c>
-      <c s="7" r="J48">
-        <v>0.12186865267434</v>
-      </c>
-    </row>
-    <row r="49" ht="6" customHeight="1"/>
-    <row r="50" ht="222.75" customHeight="1">
-      <c s="9" t="inlineStr" r="A50">
+        <v>0.183973834832379</v>
+      </c>
+    </row>
+    <row r="28" ht="0.05" customHeight="1"/>
+    <row r="29" ht="5.95" customHeight="1"/>
+    <row r="30" ht="222.75" customHeight="1">
+      <c s="9" t="inlineStr" r="A30">
         <is>
           <r>
             <rPr>
@@ -2102,6 +1389,7 @@
         </is>
       </c>
     </row>
+    <row r="31" ht="14.75" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
@@ -2130,31 +1418,10 @@
     <mergeCell ref="G25:H25"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A30:G30"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A50" r:id="rId7"/>
+    <hyperlink ref="A30" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
